--- a/5-7-平衡小车/STM32F103C8T6引脚定义.xlsx
+++ b/5-7-平衡小车/STM32F103C8T6引脚定义.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiaoliang/code/chip32-learning/5-7-平衡小车/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77D237F-E618-4E46-80AF-89281628E5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFE448F-EA91-5147-9594-6F3B645284DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27220" windowHeight="19960" xr2:uid="{D862D2F7-4BB5-4946-9DE3-EE852D9A2767}"/>
   </bookViews>
@@ -1061,8 +1061,8 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28:H29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.6640625" defaultRowHeight="19.5" customHeight="1"/>
@@ -1299,7 +1299,7 @@
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1349,7 +1349,7 @@
       <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="6" t="s">

--- a/5-7-平衡小车/STM32F103C8T6引脚定义.xlsx
+++ b/5-7-平衡小车/STM32F103C8T6引脚定义.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiaoliang/code/chip32-learning/5-7-平衡小车/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFE448F-EA91-5147-9594-6F3B645284DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A042BB6-FCA6-F841-832B-C96236B60FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27220" windowHeight="19960" xr2:uid="{D862D2F7-4BB5-4946-9DE3-EE852D9A2767}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="198">
   <si>
     <t xml:space="preserve">I/O </t>
   </si>
@@ -359,10 +360,6 @@
     <t>VDD_2</t>
   </si>
   <si>
-    <t>I2C1_SDA/TIM4_CH2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">VSS_3 </t>
   </si>
   <si>
@@ -407,14 +404,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USART2_RTS/ADC12_IN1/TIM2_CH2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART2_TX/ADC12_IN2/TIM2_CH3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>USART2_RX/ADC12_IN3/TIM2_CH4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -423,14 +412,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SPI1_MISO/ADC12_IN6/TIM3_CH1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI1_MOSI/ADC12_IN7/TIM3_CH2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SPI2_NSS/I2C2_SMBAI/USART3_CK/TIM1_BKIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -467,9 +448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TIM2_CH2</t>
-  </si>
-  <si>
     <t>电机A 的A相</t>
   </si>
   <si>
@@ -488,15 +466,6 @@
     <t>520电机</t>
   </si>
   <si>
-    <t>TIM3_CH2</t>
-  </si>
-  <si>
-    <t>TIM3_CH1</t>
-  </si>
-  <si>
-    <t>I2C1_SCL/TIM4_CH1</t>
-  </si>
-  <si>
     <t>USART1_RTS/USBDP/CAN_TX/TIM1_ETR</t>
   </si>
   <si>
@@ -510,9 +479,6 @@
   </si>
   <si>
     <t>OLED_I2C_SCL</t>
-  </si>
-  <si>
-    <t>MPU 12 中断</t>
   </si>
   <si>
     <t xml:space="preserve">MPU AD0 </t>
@@ -544,32 +510,263 @@
     </r>
   </si>
   <si>
-    <t>TIM4_CH1</t>
-  </si>
-  <si>
-    <t>TIM4_CH2</t>
-  </si>
-  <si>
     <t>电机B 的A相</t>
   </si>
   <si>
     <t>电机B 的B相</t>
   </si>
   <si>
-    <t>PWM</t>
-  </si>
-  <si>
     <t>TB6612 BIN2</t>
   </si>
   <si>
     <t>TB6612 BIN1</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>B15</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>VB</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>B0</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>SVL</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>XDA</t>
+  </si>
+  <si>
+    <t>XCL</t>
+  </si>
+  <si>
+    <t>ADO</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>PWMA</t>
+  </si>
+  <si>
+    <t>PWMB</t>
+  </si>
+  <si>
+    <r>
+      <t>USART2_RTS/ADC12_IN1/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TIM2_CH2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>USART2_TX/ADC12_IN2/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TIM2_CH3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SPI1_MISO/ADC12_IN6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/TIM3_CH1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SPI1_MOSI/ADC12_IN7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/TIM3_CH2</t>
+    </r>
+  </si>
+  <si>
+    <t>MPU6050</t>
+  </si>
+  <si>
+    <r>
+      <t>I2C1_SCL/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TIM4_CH1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I2C1_SDA/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TIM4_CH2</t>
+    </r>
+  </si>
+  <si>
+    <t>OLED</t>
+  </si>
+  <si>
+    <t>MPU INT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,8 +834,39 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,8 +891,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -687,13 +951,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,13 +1023,61 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1059,10 +1397,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.6640625" defaultRowHeight="19.5" customHeight="1"/>
@@ -1077,41 +1415,41 @@
     <col min="8" max="16384" width="16.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:12" ht="38.25" customHeight="1">
+      <c r="A1" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>67</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19.5" customHeight="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1128,7 +1466,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="19.5" customHeight="1">
+    <row r="4" spans="1:12" ht="19.5" customHeight="1">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1147,7 +1485,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1">
+    <row r="5" spans="1:12" ht="19.5" customHeight="1">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1166,7 +1504,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1">
+    <row r="6" spans="1:12" ht="19.5" customHeight="1">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1185,7 +1523,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1">
+    <row r="7" spans="1:12" ht="19.5" customHeight="1">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1202,7 +1540,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1">
+    <row r="8" spans="1:12" ht="19.5" customHeight="1">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1219,7 +1557,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1">
+    <row r="9" spans="1:12" ht="19.5" customHeight="1">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1236,7 +1574,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1">
+    <row r="10" spans="1:12" ht="19.5" customHeight="1">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1253,7 +1591,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1">
+    <row r="11" spans="1:12" ht="19.5" customHeight="1">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1269,14 +1607,20 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1">
+      <c r="I11" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="19.5" customHeight="1">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1291,11 +1635,11 @@
         <v>15</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1">
+    <row r="13" spans="1:12" ht="19.5" customHeight="1">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1310,17 +1654,14 @@
         <v>16</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1">
+      <c r="J13" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="19.5" customHeight="1">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1335,21 +1676,18 @@
         <v>17</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1">
+      <c r="J14" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="19.5" customHeight="1">
       <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1360,11 +1698,11 @@
         <v>18</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1">
+    <row r="16" spans="1:12" ht="19.5" customHeight="1">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -1379,14 +1717,14 @@
         <v>19</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="19.5" customHeight="1">
+      <c r="J16" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="19.5" customHeight="1">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -1404,11 +1742,11 @@
         <v>91</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1">
+      <c r="J17" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="19.5" customHeight="1">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -1423,19 +1761,16 @@
         <v>21</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1">
+      <c r="K18" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="19.5" customHeight="1">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -1450,23 +1785,20 @@
         <v>23</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="19.5" customHeight="1">
+      <c r="K19" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="19.5" customHeight="1">
       <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1483,11 +1815,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="19.5" customHeight="1">
+    <row r="21" spans="1:11" ht="19.5" customHeight="1">
       <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1504,11 +1836,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="19.5" customHeight="1">
+    <row r="22" spans="1:11" ht="19.5" customHeight="1">
       <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -1523,7 +1855,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:10" ht="19.5" customHeight="1">
+    <row r="23" spans="1:11" ht="19.5" customHeight="1">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -1545,11 +1877,11 @@
       <c r="G23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="19.5" customHeight="1">
+      <c r="I23" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="19.5" customHeight="1">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -1571,11 +1903,11 @@
       <c r="G24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="19.5" customHeight="1">
+      <c r="I24" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="19.5" customHeight="1">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -1592,7 +1924,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:10" ht="19.5" customHeight="1">
+    <row r="26" spans="1:11" ht="19.5" customHeight="1">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -1609,7 +1941,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:10" ht="19.5" customHeight="1">
+    <row r="27" spans="1:11" ht="19.5" customHeight="1">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -1626,11 +1958,11 @@
         <v>36</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" customHeight="1">
+    <row r="28" spans="1:11" ht="19.5" customHeight="1">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -1647,14 +1979,14 @@
         <v>37</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="19.5" customHeight="1">
+      <c r="J28" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="19.5" customHeight="1">
       <c r="A29" s="6">
         <v>27</v>
       </c>
@@ -1671,14 +2003,14 @@
         <v>38</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="19.5" customHeight="1">
+      <c r="J29" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="19.5" customHeight="1">
       <c r="A30" s="6">
         <v>28</v>
       </c>
@@ -1699,7 +2031,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:10" ht="19.5" customHeight="1">
+    <row r="31" spans="1:11" ht="19.5" customHeight="1">
       <c r="A31" s="6">
         <v>29</v>
       </c>
@@ -1716,11 +2048,11 @@
         <v>41</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:10" ht="19.5" customHeight="1">
+    <row r="32" spans="1:11" ht="19.5" customHeight="1">
       <c r="A32" s="6">
         <v>30</v>
       </c>
@@ -1741,7 +2073,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:10" ht="19.5" customHeight="1">
+    <row r="33" spans="1:12" ht="19.5" customHeight="1">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -1762,7 +2094,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:10" ht="19.5" customHeight="1">
+    <row r="34" spans="1:12" ht="19.5" customHeight="1">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -1779,11 +2111,11 @@
         <v>45</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:10" ht="19.5" customHeight="1">
+    <row r="35" spans="1:12" ht="19.5" customHeight="1">
       <c r="A35" s="6">
         <v>33</v>
       </c>
@@ -1800,14 +2132,14 @@
         <v>47</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G35" s="7"/>
-      <c r="H35" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="19.5" customHeight="1">
+      <c r="I35" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="19.5" customHeight="1">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -1828,7 +2160,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="19.5" customHeight="1">
+    <row r="37" spans="1:12" ht="19.5" customHeight="1">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -1845,7 +2177,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:10" ht="19.5" customHeight="1">
+    <row r="38" spans="1:12" ht="19.5" customHeight="1">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -1862,7 +2194,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:10" ht="19.5" customHeight="1">
+    <row r="39" spans="1:12" ht="19.5" customHeight="1">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -1883,7 +2215,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="19.5" customHeight="1">
+    <row r="40" spans="1:12" ht="19.5" customHeight="1">
       <c r="A40" s="6">
         <v>38</v>
       </c>
@@ -1901,13 +2233,13 @@
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="19.5" customHeight="1">
+        <v>137</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="19.5" customHeight="1">
       <c r="A41" s="6">
         <v>39</v>
       </c>
@@ -1925,10 +2257,10 @@
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="19.5" customHeight="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="19.5" customHeight="1">
       <c r="A42" s="6">
         <v>40</v>
       </c>
@@ -1946,10 +2278,10 @@
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="19.5" customHeight="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="19.5" customHeight="1">
       <c r="A43" s="6">
         <v>41</v>
       </c>
@@ -1967,10 +2299,10 @@
         <v>59</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="19.5" customHeight="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="19.5" customHeight="1">
       <c r="A44" s="6">
         <v>42</v>
       </c>
@@ -1987,19 +2319,16 @@
         <v>60</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="19.5" customHeight="1">
+        <v>124</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="19.5" customHeight="1">
       <c r="A45" s="6">
         <v>43</v>
       </c>
@@ -2016,19 +2345,16 @@
         <v>61</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="19.5" customHeight="1">
+      <c r="K45" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="19.5" customHeight="1">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -2045,7 +2371,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="1:10" ht="19.5" customHeight="1">
+    <row r="47" spans="1:12" ht="19.5" customHeight="1">
       <c r="A47" s="6">
         <v>45</v>
       </c>
@@ -2067,11 +2393,11 @@
       <c r="G47" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="19.5" customHeight="1">
+      <c r="L47" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="19.5" customHeight="1">
       <c r="A48" s="6">
         <v>46</v>
       </c>
@@ -2093,8 +2419,8 @@
       <c r="G48" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>143</v>
+      <c r="L48" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="19.5" customHeight="1">
@@ -2102,14 +2428,14 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
@@ -2119,14 +2445,14 @@
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -2139,4 +2465,1463 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDCAFBD-AF8A-484F-9A49-B289F1D9677A}">
+  <dimension ref="A1:AR28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="22" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="3.5" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" ht="22" customHeight="1">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" ht="22" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" ht="22" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" ht="22" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" ht="22" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" ht="22" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" ht="22" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" ht="22" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="15"/>
+      <c r="AQ8" s="15"/>
+      <c r="AR8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" ht="22" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" ht="22" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="M10" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="O10" s="17">
+        <v>3.3</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="T10" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="U10" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="V10" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="W10" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="X10" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y10" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z10" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA10" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB10" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC10" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD10" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE10" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF10" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" ht="22" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="15"/>
+      <c r="AP11" s="15"/>
+      <c r="AQ11" s="15"/>
+      <c r="AR11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" ht="22" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="15"/>
+      <c r="AP12" s="15"/>
+      <c r="AQ12" s="15"/>
+      <c r="AR12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" ht="22" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="15"/>
+      <c r="AQ13" s="15"/>
+      <c r="AR13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" ht="22" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="15"/>
+      <c r="AO14" s="15"/>
+      <c r="AP14" s="15"/>
+      <c r="AQ14" s="15"/>
+      <c r="AR14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" ht="22" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="15"/>
+      <c r="AI15" s="15"/>
+      <c r="AJ15" s="15"/>
+      <c r="AK15" s="15"/>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="15"/>
+      <c r="AN15" s="15"/>
+      <c r="AO15" s="15"/>
+      <c r="AP15" s="15"/>
+      <c r="AQ15" s="15"/>
+      <c r="AR15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" ht="22" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="M16" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="P16" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="R16" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="S16" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="T16" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="U16" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="V16" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="W16" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="X16" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y16" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z16" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA16" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB16" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC16" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD16" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE16" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF16" s="17">
+        <v>3.3</v>
+      </c>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="15"/>
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="15"/>
+      <c r="AN16" s="15"/>
+      <c r="AO16" s="15"/>
+      <c r="AP16" s="15"/>
+      <c r="AQ16" s="15"/>
+      <c r="AR16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" ht="22" customHeight="1">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="23"/>
+      <c r="AH17" s="23"/>
+      <c r="AI17" s="23"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="15"/>
+      <c r="AN17" s="15"/>
+      <c r="AO17" s="15"/>
+      <c r="AP17" s="15"/>
+      <c r="AQ17" s="15"/>
+      <c r="AR17" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" ht="22" customHeight="1">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="23"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="15"/>
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="15"/>
+      <c r="AP18" s="15"/>
+      <c r="AQ18" s="15"/>
+      <c r="AR18" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" ht="22" customHeight="1">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG19" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH19" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI19" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
+      <c r="AN19" s="15"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="15"/>
+      <c r="AQ19" s="15"/>
+      <c r="AR19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" ht="22" customHeight="1">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="15"/>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="15"/>
+      <c r="AR20" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" ht="22" customHeight="1">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="15"/>
+      <c r="AQ21" s="15"/>
+      <c r="AR21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" ht="22" customHeight="1">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="U22" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="V22" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="W22" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="X22" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y22" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z22" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA22" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="15"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="15"/>
+      <c r="AN22" s="15"/>
+      <c r="AO22" s="15"/>
+      <c r="AP22" s="15"/>
+      <c r="AQ22" s="15"/>
+      <c r="AR22" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" ht="22" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="15"/>
+      <c r="AM23" s="15"/>
+      <c r="AN23" s="15"/>
+      <c r="AO23" s="15"/>
+      <c r="AP23" s="15"/>
+      <c r="AQ23" s="15"/>
+      <c r="AR23" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" ht="22" customHeight="1">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="15"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="15"/>
+      <c r="AN24" s="15"/>
+      <c r="AO24" s="15"/>
+      <c r="AP24" s="15"/>
+      <c r="AQ24" s="15"/>
+      <c r="AR24" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" ht="22" customHeight="1">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="15"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="15"/>
+      <c r="AN25" s="15"/>
+      <c r="AO25" s="15"/>
+      <c r="AP25" s="15"/>
+      <c r="AQ25" s="15"/>
+      <c r="AR25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" ht="22" customHeight="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="15"/>
+      <c r="AJ26" s="15"/>
+      <c r="AK26" s="15"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="15"/>
+      <c r="AN26" s="15"/>
+      <c r="AO26" s="15"/>
+      <c r="AP26" s="15"/>
+      <c r="AQ26" s="15"/>
+      <c r="AR26" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" ht="22" customHeight="1">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="15"/>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="15"/>
+      <c r="AN27" s="15"/>
+      <c r="AO27" s="15"/>
+      <c r="AP27" s="15"/>
+      <c r="AQ27" s="15"/>
+      <c r="AR27" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" ht="22" customHeight="1">
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1">
+        <v>6</v>
+      </c>
+      <c r="H28" s="1">
+        <v>7</v>
+      </c>
+      <c r="I28" s="1">
+        <v>8</v>
+      </c>
+      <c r="J28" s="1">
+        <v>9</v>
+      </c>
+      <c r="K28" s="1">
+        <v>10</v>
+      </c>
+      <c r="L28" s="1">
+        <v>11</v>
+      </c>
+      <c r="M28" s="1">
+        <v>12</v>
+      </c>
+      <c r="N28" s="1">
+        <v>13</v>
+      </c>
+      <c r="O28" s="1">
+        <v>14</v>
+      </c>
+      <c r="P28" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>16</v>
+      </c>
+      <c r="R28" s="1">
+        <v>17</v>
+      </c>
+      <c r="S28" s="1">
+        <v>18</v>
+      </c>
+      <c r="T28" s="1">
+        <v>19</v>
+      </c>
+      <c r="U28" s="1">
+        <v>20</v>
+      </c>
+      <c r="V28" s="1">
+        <v>21</v>
+      </c>
+      <c r="W28" s="1">
+        <v>22</v>
+      </c>
+      <c r="X28" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>